--- a/medicine/Handicap/Sanatorium_Bonvicini_de_Tulln_an_der_Donau/Sanatorium_Bonvicini_de_Tulln_an_der_Donau.xlsx
+++ b/medicine/Handicap/Sanatorium_Bonvicini_de_Tulln_an_der_Donau/Sanatorium_Bonvicini_de_Tulln_an_der_Donau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le sanatorium Bonvicini de Tulln an der Donau était un hôpital psychiatrique privé situé dans la ville de Tulln an der Donau, en Autriche, qui a existé à partir de 1884 avant de devenir un hôpital d'État en 1939.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fondé en 1884 et initialement destiné à accueillir des enfants présentant un retard intellectuel, l'établissement accueille à partir de 1895 des patients adultes. L'institution acquise par le médecin Silverio Vigili, en 1913, reçoit officiellement le statut de « sanatorium »[1]. Elle doit son nom de « Sanatorium Bonvicini » en référence au Docteur Giulio Bonvicini (1872-1951), neurologue et psychiatre viennois qui y exerce sa profession[2].
-Beaucoup de patients viennent de l'étranger pour y être admis ou soignés[2]. L'établissement est vendu en 1939 et devient un hôpital de l'État[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fondé en 1884 et initialement destiné à accueillir des enfants présentant un retard intellectuel, l'établissement accueille à partir de 1895 des patients adultes. L'institution acquise par le médecin Silverio Vigili, en 1913, reçoit officiellement le statut de « sanatorium ». Elle doit son nom de « Sanatorium Bonvicini » en référence au Docteur Giulio Bonvicini (1872-1951), neurologue et psychiatre viennois qui y exerce sa profession.
+Beaucoup de patients viennent de l'étranger pour y être admis ou soignés. L'établissement est vendu en 1939 et devient un hôpital de l'État.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Patients célèbres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'un des patients les plus connus est le prince Pierre de Saxe-Cobourg-Gotha (1866–1934), qui y est interné en 1900, après avoir été sujet à des accès de démence[3]. Il passe la majeure partie de sa vie au sanatorium de Tulln an der Donau, où il meurt le 6 juillet 1934[4],[5].
-Margarethe, dite Grete, Schindler (1880-1942), fille du peintre autrichien Emil Jakob Schindler, est également internée durant plusieurs années au sanatorium Bonvicini[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'un des patients les plus connus est le prince Pierre de Saxe-Cobourg-Gotha (1866–1934), qui y est interné en 1900, après avoir été sujet à des accès de démence. Il passe la majeure partie de sa vie au sanatorium de Tulln an der Donau, où il meurt le 6 juillet 1934,.
+Margarethe, dite Grete, Schindler (1880-1942), fille du peintre autrichien Emil Jakob Schindler, est également internée durant plusieurs années au sanatorium Bonvicini.
 </t>
         </is>
       </c>
